--- a/line-bot-for-testing/storage/V7000.xlsx
+++ b/line-bot-for-testing/storage/V7000.xlsx
@@ -2280,13 +2280,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="33.26171875" customWidth="1"/>
+    <col min="2" max="2" width="23.015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -2701,13 +2701,13 @@
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>179</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -3101,15 +3101,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C198C-C2D3-444E-B319-F2DEAAD50D52}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="44.83984375" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>246</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>252</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>256</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>266</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>270</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>274</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>276</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>286</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>294</v>
       </c>
@@ -3518,7 +3518,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3527,17 +3526,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0F16B4-9A00-46B7-AD58-DB62358940AA}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="A1:B49"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.1953125" customWidth="1"/>
+    <col min="2" max="2" width="44.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>296</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -3553,7 +3550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -3561,7 +3558,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>301</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>303</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>305</v>
       </c>
@@ -3617,7 +3614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -3625,7 +3622,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>307</v>
       </c>
@@ -3633,7 +3630,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -3641,7 +3638,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>309</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>311</v>
       </c>
@@ -3665,7 +3662,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>312</v>
       </c>
@@ -3673,7 +3670,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>313</v>
       </c>
@@ -3681,7 +3678,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>314</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>315</v>
       </c>
@@ -3697,7 +3694,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -3705,7 +3702,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>317</v>
       </c>
@@ -3713,7 +3710,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>318</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>319</v>
       </c>
@@ -3729,7 +3726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>320</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>321</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>323</v>
       </c>
@@ -3761,7 +3758,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>324</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>325</v>
       </c>
@@ -3777,7 +3774,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>326</v>
       </c>
@@ -3785,7 +3782,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>327</v>
       </c>
@@ -3793,7 +3790,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>328</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>329</v>
       </c>
@@ -3809,7 +3806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -3817,7 +3814,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>331</v>
       </c>
@@ -3825,7 +3822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>333</v>
       </c>
@@ -3833,7 +3830,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -3841,7 +3838,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>335</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>336</v>
       </c>
@@ -3865,7 +3862,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>337</v>
       </c>
@@ -3873,7 +3870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>338</v>
       </c>
@@ -3881,7 +3878,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>339</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>340</v>
       </c>
@@ -3897,7 +3894,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>341</v>
       </c>
@@ -3905,7 +3902,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>342</v>
       </c>
@@ -3913,7 +3910,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>343</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>344</v>
       </c>
@@ -3930,9 +3927,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3940,17 +3935,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099DB701-B933-4952-82D9-5102D66AFC54}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B48" sqref="A1:B50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.90625" customWidth="1"/>
-    <col min="2" max="2" width="46.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.91796875" customWidth="1"/>
+    <col min="2" max="2" width="46.03515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -3958,7 +3951,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>395</v>
       </c>
@@ -3966,7 +3959,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>396</v>
       </c>
@@ -3974,7 +3967,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>397</v>
       </c>
@@ -3982,7 +3975,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>398</v>
       </c>
@@ -3990,7 +3983,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>399</v>
       </c>
@@ -3998,7 +3991,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>400</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>401</v>
       </c>
@@ -4014,7 +4007,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -4022,7 +4015,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>403</v>
       </c>
@@ -4030,7 +4023,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>404</v>
       </c>
@@ -4038,7 +4031,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>405</v>
       </c>
@@ -4046,7 +4039,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>406</v>
       </c>
@@ -4054,7 +4047,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>407</v>
       </c>
@@ -4062,7 +4055,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>408</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>409</v>
       </c>
@@ -4078,7 +4071,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>410</v>
       </c>
@@ -4086,7 +4079,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>411</v>
       </c>
@@ -4094,7 +4087,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>412</v>
       </c>
@@ -4102,7 +4095,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>413</v>
       </c>
@@ -4110,7 +4103,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>414</v>
       </c>
@@ -4118,7 +4111,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>415</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -4134,7 +4127,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>417</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>418</v>
       </c>
@@ -4150,7 +4143,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>419</v>
       </c>
@@ -4158,7 +4151,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>420</v>
       </c>
@@ -4166,7 +4159,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>421</v>
       </c>
@@ -4174,7 +4167,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>422</v>
       </c>
@@ -4182,7 +4175,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>423</v>
       </c>
@@ -4190,7 +4183,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>424</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>425</v>
       </c>
@@ -4206,7 +4199,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>426</v>
       </c>
@@ -4214,7 +4207,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>427</v>
       </c>
@@ -4222,7 +4215,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>428</v>
       </c>
@@ -4230,7 +4223,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>429</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>430</v>
       </c>
@@ -4246,7 +4239,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>431</v>
       </c>
@@ -4254,7 +4247,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>432</v>
       </c>
@@ -4262,7 +4255,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>433</v>
       </c>
@@ -4270,7 +4263,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>434</v>
       </c>
@@ -4278,7 +4271,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>435</v>
       </c>
@@ -4286,7 +4279,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>436</v>
       </c>
@@ -4294,7 +4287,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>437</v>
       </c>
@@ -4302,7 +4295,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>438</v>
       </c>
@@ -4310,7 +4303,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>439</v>
       </c>
@@ -4318,7 +4311,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>440</v>
       </c>
@@ -4326,7 +4319,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>441</v>
       </c>
@@ -4334,7 +4327,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>442</v>
       </c>
@@ -4342,7 +4335,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>443</v>
       </c>
@@ -4351,8 +4344,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>